--- a/biology/Botanique/Grossulariaceae/Grossulariaceae.xlsx
+++ b/biology/Botanique/Grossulariaceae/Grossulariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Grossulariacées (Grossulariaceae) constituent une famille de plantes dicotylédones qui regroupe les groseilliers. La circonscription de cette famille est très discutée : elle comprend plus de cent espèces réparties en 1 à 2 genres.
 Ce sont des arbustes présents des zones froides aux régions subtropicales.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type  Grossularia dérivé du latin grossulus signifiant « petite figue »[1], et en français « groseille ». Mais l'étymologie peut aussi être liée à krusil dans la langue vieux-francique, à l'ancien
-néerlandais kroesel et à l'allemand kruselbeere, tous noms qui désignent une « baie ridée », peut-être toutes de la même racine indo-européenne. Grossularia est un synonyme plus tardif de Ribes, qui est une forme latinisée du sémitique rībās[2], « goût acide, rhubarbe, groseille »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type  Grossularia dérivé du latin grossulus signifiant « petite figue », et en français « groseille ». Mais l'étymologie peut aussi être liée à krusil dans la langue vieux-francique, à l'ancien
+néerlandais kroesel et à l'allemand kruselbeere, tous noms qui désignent une « baie ridée », peut-être toutes de la même racine indo-européenne. Grossularia est un synonyme plus tardif de Ribes, qui est une forme latinisée du sémitique rībās, « goût acide, rhubarbe, groseille ».
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG III (2009)[4] place cette famille dans l'ordre des Saxifragales. Le Angiosperm Phylogeny Website [5 janvier 2010] accepte également le seul genre : Ribes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG III (2009) place cette famille dans l'ordre des Saxifragales. Le Angiosperm Phylogeny Website [5 janvier 2010] accepte également le seul genre : Ribes.
 </t>
         </is>
       </c>
@@ -575,15 +591,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (27 avr. 2010)[5] et NCBI  (27 avr. 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (27 avr. 2010) et NCBI  (27 avr. 2010) :
 Ribes - Le Groseillier
-Le genre Escallonia est considéré par NCBI  (1 sept 2010)[7] comme placé sous Escalloniaceae
-Selon DELTA Angio           (27 avr. 2010)[8] :
+Le genre Escallonia est considéré par NCBI  (1 sept 2010) comme placé sous Escalloniaceae
+Selon DELTA Angio           (27 avr. 2010) :
 Grossularia
 Ribes
-Selon ITIS      (27 avr. 2010)[9] :
+Selon ITIS      (27 avr. 2010) :
 Escallonia  Mutis ex L. f.
 Itea  L.
 Ribes  L.</t>
@@ -614,9 +632,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (27 avr. 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (27 avr. 2010) :
 genre Ribes
 Ribes aciculare
 Ribes acuminatum
